--- a/Output/June/productivity_agent_valid/productivity_agent_2022-06-03_valid.xlsx
+++ b/Output/June/productivity_agent_valid/productivity_agent_2022-06-03_valid.xlsx
@@ -27886,7 +27886,7 @@
         <v>0.5987261146496815</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="AV85">
-        <v>0</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="AW85">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="CH85">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CI85">
         <v>0</v>
@@ -28171,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="DA85">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
   </sheetData>
